--- a/任务3调参.xlsx
+++ b/任务3调参.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY_FILE\MRPC-2025-homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B6576-11DC-4019-965B-6BA3B074DF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B76FB5-EE03-4F8A-9B42-97C8F8FF4847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>实验编号</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>[6, 6, 5]</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
 </sst>
 </file>
@@ -405,13 +402,15 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.9140625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -451,19 +450,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>0.108076660301656</v>
+        <v>9.8869205112791597E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>-111.280468940734</v>
+        <v>66.620745182037297</v>
       </c>
       <c r="F2" s="2">
-        <v>10.3907053471595</v>
+        <v>34.3868253176122</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>-525.12215200189405</v>
+        <v>436.36307106813598</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -483,9 +482,7 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>

--- a/任务3调参.xlsx
+++ b/任务3调参.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY_FILE\MRPC-2025-homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B76FB5-EE03-4F8A-9B42-97C8F8FF4847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45CBB6-8FF3-4064-9F6D-25DB38935EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -475,11 +475,21 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.23623720715746099</v>
+      </c>
+      <c r="E3" s="2">
+        <v>75.959257364273</v>
+      </c>
+      <c r="F3" s="2">
+        <v>33.6474760787167</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>69.168788120090298</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
